--- a/InputData/elec/BGCL/BAU Generation Capacity Lifetime.xlsx
+++ b/InputData/elec/BGCL/BAU Generation Capacity Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BGCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF683B6-4FAF-4AB2-B90E-2E5046DE4115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FB2D9A-94B9-4D16-86D3-E4D33C748555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8595" yWindow="555" windowWidth="15300" windowHeight="16845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Source:</t>
   </si>
@@ -100,9 +100,6 @@
     <t>biomass</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>geothermal</t>
   </si>
   <si>
@@ -172,14 +169,38 @@
     <t>All Sources</t>
   </si>
   <si>
-    <t>Colorado</t>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +220,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,7 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -525,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,86 +566,83 @@
     <col min="2" max="2" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="7">
-        <v>44832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{562D31A5-5404-4DF4-8437-26D5BC436B42}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -623,9 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -643,7 +668,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -667,7 +692,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -707,7 +732,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>25</v>
@@ -739,15 +764,15 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -756,12 +781,12 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <f>'EIA Plant Lifetimes'!B2</f>
@@ -770,7 +795,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <f>'EIA Plant Lifetimes'!B4</f>
@@ -779,127 +804,199 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B4">
-        <f>'EIA Plant Lifetimes'!B5</f>
+        <f>'EIA Plant Lifetimes'!B4</f>
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>'EIA Plant Lifetimes'!B5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <f>'EIA Plant Lifetimes'!B8</f>
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
         <f>'EIA Plant Lifetimes'!B9</f>
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>'EIA Plant Lifetimes'!B12</f>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>'EIA Plant Lifetimes'!B11</f>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <f>'EIA Plant Lifetimes'!B6</f>
-        <v>40</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <f>'EIA Plant Lifetimes'!B7</f>
+        <f>'EIA Plant Lifetimes'!B6</f>
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <f>AVERAGE('EIA Plant Lifetimes'!B2:B4)</f>
+        <f>'EIA Plant Lifetimes'!B7</f>
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <f>'EIA Plant Lifetimes'!B3</f>
+        <f>AVERAGE('EIA Plant Lifetimes'!B2:B4)</f>
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <f>B2</f>
+        <f>'EIA Plant Lifetimes'!B3</f>
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <f>B6</f>
-        <v>25</v>
+        <f>B2</f>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <f>B11</f>
-        <v>40</v>
+        <f>B7</f>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <f>B11</f>
+        <f>B12</f>
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <f>B9</f>
+        <f>B12</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <f>B10</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <f>B2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <f>B4</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <f>B10</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <f>B14</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <f>B5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <f>B20</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <f>B4</f>
         <v>40</v>
       </c>
     </row>
@@ -907,7 +1004,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B11" formulaRange="1"/>
+    <ignoredError sqref="B12" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>